--- a/assets/excel/Order.all3.xlsx
+++ b/assets/excel/Order.all3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="188">
   <si>
     <t>No. Pesanan</t>
   </si>
@@ -514,19 +514,16 @@
     <t>2025-04-26 00:24</t>
   </si>
   <si>
-    <t>2G4</t>
-  </si>
-  <si>
-    <t>PWM 5A DC 4.5-35V 90W Motor Speed Dimmer Controller Lampu LED Dimer</t>
-  </si>
-  <si>
-    <t>8O35</t>
-  </si>
-  <si>
-    <t>15.950</t>
-  </si>
-  <si>
-    <t>25 gr</t>
+    <t>3H4</t>
+  </si>
+  <si>
+    <t>Modul MT3608 DC Step Up Boost Converter Module Mini 28V 2A Booster</t>
+  </si>
+  <si>
+    <t>7F9</t>
+  </si>
+  <si>
+    <t>6.950</t>
   </si>
   <si>
     <t>5</t>
@@ -556,46 +553,16 @@
     <t>2025-04-29 01:02</t>
   </si>
   <si>
-    <t>3H4</t>
-  </si>
-  <si>
-    <t>Modul MT3608 DC Step Up Boost Converter Module Mini 28V 2A Booster</t>
-  </si>
-  <si>
-    <t>7F9</t>
-  </si>
-  <si>
-    <t>6.950</t>
-  </si>
-  <si>
-    <t>9G3</t>
-  </si>
-  <si>
-    <t>TP4056 Micro Protection USB Charging Module 18650 Lithium Battery Protection</t>
-  </si>
-  <si>
-    <t>2L1</t>
+    <t>19D4</t>
+  </si>
+  <si>
+    <t>TP4056 USB Type C 18650 Battery Charging Module Lithium Ion+Protection</t>
+  </si>
+  <si>
+    <t>4H5</t>
   </si>
   <si>
     <t>4.950</t>
-  </si>
-  <si>
-    <t>2.699</t>
-  </si>
-  <si>
-    <t>2.251</t>
-  </si>
-  <si>
-    <t>3 gr</t>
-  </si>
-  <si>
-    <t>19D4</t>
-  </si>
-  <si>
-    <t>TP4056 USB Type C 18650 Battery Charging Module Lithium Ion+Protection</t>
-  </si>
-  <si>
-    <t>4H5</t>
   </si>
   <si>
     <t>2.950</t>
@@ -691,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -707,17 +674,8 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,7 +1215,7 @@
       <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1296,7 +1254,7 @@
       <c r="N3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>82</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -1406,7 +1364,7 @@
       <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1445,7 +1403,7 @@
       <c r="N4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -1552,40 +1510,40 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1594,7 +1552,7 @@
       <c r="N5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="3" t="s">
         <v>120</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -1627,76 +1585,76 @@
       <c r="Y5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AB5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AB5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AF5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AF5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AL5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AL5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AN5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
+      <c r="AO5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AR5" s="7" t="s">
+      <c r="AR5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AS5" s="7" t="s">
+      <c r="AS5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AT5" s="7" t="s">
+      <c r="AT5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AU5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AV5" s="7" t="s">
+      <c r="AV5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AW5" s="7" t="s">
+      <c r="AW5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1743,7 +1701,7 @@
       <c r="N6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>131</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -1892,7 +1850,7 @@
       <c r="N7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="3" t="s">
         <v>150</v>
       </c>
       <c r="P7" s="3" t="s">
@@ -1999,40 +1957,40 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -2041,7 +1999,7 @@
       <c r="N8" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>169</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -2072,528 +2030,232 @@
         <v>61</v>
       </c>
       <c r="Y8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM8" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AN8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AL8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AO8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AN8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AR8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AR8" s="4" t="s">
+      <c r="AS8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AT8" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AU8" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AU8" s="4" t="s">
+      <c r="AV8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW8" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>184</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="X9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="AA9" s="7" t="s">
+      <c r="AB9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AB9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK9" s="7" t="s">
+      <c r="AN9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM9" s="7" t="s">
+      <c r="AO9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AN9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ9" s="7" t="s">
+      <c r="AR9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AR9" s="7" t="s">
+      <c r="AS9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AS9" s="7" t="s">
+      <c r="AT9" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AT9" s="7" t="s">
+      <c r="AU9" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AU9" s="7" t="s">
+      <c r="AV9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW9" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AV9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW9" s="7" t="s">
-        <v>180</v>
-      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW10" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW11" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -3572,8 +3234,6 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
